--- a/incDerec.xlsx
+++ b/incDerec.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\9 semestre\IABO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Universidad\9 semestre\IABO\LAB IABO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EA990EC-C35B-4231-BAC5-E114DE3BED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8F4A853-8358-461B-B551-9BD161830066}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{598DBBE8-B8EA-4B2B-B516-2FD7FDAAF49D}"/>
   </bookViews>
@@ -32,10 +32,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -385,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43D50FCB-82A9-4DF7-A738-68C073C06FA7}">
-  <dimension ref="A1:I420"/>
+  <dimension ref="A1:I350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A420"/>
+    <sheetView tabSelected="1" topLeftCell="A337" workbookViewId="0">
+      <selection activeCell="A351" sqref="A351:I420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10543,2036 +10539,6 @@
         <v>8.1669999999999998</v>
       </c>
     </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A351">
-        <v>-5.8999999999999997E-2</v>
-      </c>
-      <c r="B351">
-        <v>-0.67600000000000005</v>
-      </c>
-      <c r="C351">
-        <v>0.5</v>
-      </c>
-      <c r="D351">
-        <v>2.8079999999999998</v>
-      </c>
-      <c r="E351">
-        <v>-52.795000000000002</v>
-      </c>
-      <c r="F351">
-        <v>-77.453999999999994</v>
-      </c>
-      <c r="G351">
-        <v>26.062000000000001</v>
-      </c>
-      <c r="H351">
-        <v>-8.74</v>
-      </c>
-      <c r="I351">
-        <v>7.1289999999999996</v>
-      </c>
-    </row>
-    <row r="352" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A352">
-        <v>-0.13600000000000001</v>
-      </c>
-      <c r="B352">
-        <v>-0.57899999999999996</v>
-      </c>
-      <c r="C352">
-        <v>0.53100000000000003</v>
-      </c>
-      <c r="D352">
-        <v>45.593000000000004</v>
-      </c>
-      <c r="E352">
-        <v>-37.292000000000002</v>
-      </c>
-      <c r="F352">
-        <v>-0.85399999999999998</v>
-      </c>
-      <c r="G352">
-        <v>25.134</v>
-      </c>
-      <c r="H352">
-        <v>-8.6059999999999999</v>
-      </c>
-      <c r="I352">
-        <v>7.9470000000000001</v>
-      </c>
-    </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A353">
-        <v>-0.122</v>
-      </c>
-      <c r="B353">
-        <v>-1.044</v>
-      </c>
-      <c r="C353">
-        <v>0.54700000000000004</v>
-      </c>
-      <c r="D353">
-        <v>-0.97699999999999998</v>
-      </c>
-      <c r="E353">
-        <v>-33.325000000000003</v>
-      </c>
-      <c r="F353">
-        <v>46.57</v>
-      </c>
-      <c r="G353">
-        <v>24.573</v>
-      </c>
-      <c r="H353">
-        <v>-7.2510000000000003</v>
-      </c>
-      <c r="I353">
-        <v>7.7640000000000002</v>
-      </c>
-    </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A354">
-        <v>7.4999999999999997E-2</v>
-      </c>
-      <c r="B354">
-        <v>-0.91100000000000003</v>
-      </c>
-      <c r="C354">
-        <v>0.48899999999999999</v>
-      </c>
-      <c r="D354">
-        <v>-63.965000000000003</v>
-      </c>
-      <c r="E354">
-        <v>-35.889000000000003</v>
-      </c>
-      <c r="F354">
-        <v>36.621000000000002</v>
-      </c>
-      <c r="G354">
-        <v>23.718</v>
-      </c>
-      <c r="H354">
-        <v>-7.7880000000000003</v>
-      </c>
-      <c r="I354">
-        <v>8.6910000000000007</v>
-      </c>
-    </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A355">
-        <v>-5.6000000000000001E-2</v>
-      </c>
-      <c r="B355">
-        <v>-0.69599999999999995</v>
-      </c>
-      <c r="C355">
-        <v>0.57699999999999996</v>
-      </c>
-      <c r="D355">
-        <v>-123.596</v>
-      </c>
-      <c r="E355">
-        <v>-15.076000000000001</v>
-      </c>
-      <c r="F355">
-        <v>43.396000000000001</v>
-      </c>
-      <c r="G355">
-        <v>23.486000000000001</v>
-      </c>
-      <c r="H355">
-        <v>-9.07</v>
-      </c>
-      <c r="I355">
-        <v>10.132</v>
-      </c>
-    </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A356">
-        <v>5.0999999999999997E-2</v>
-      </c>
-      <c r="B356">
-        <v>-0.68400000000000005</v>
-      </c>
-      <c r="C356">
-        <v>0.627</v>
-      </c>
-      <c r="D356">
-        <v>-90.149000000000001</v>
-      </c>
-      <c r="E356">
-        <v>23.132000000000001</v>
-      </c>
-      <c r="F356">
-        <v>31.920999999999999</v>
-      </c>
-      <c r="G356">
-        <v>23.596</v>
-      </c>
-      <c r="H356">
-        <v>-10.095000000000001</v>
-      </c>
-      <c r="I356">
-        <v>9.6440000000000001</v>
-      </c>
-    </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A357">
-        <v>0</v>
-      </c>
-      <c r="B357">
-        <v>-0.71699999999999997</v>
-      </c>
-      <c r="C357">
-        <v>0.80900000000000005</v>
-      </c>
-      <c r="D357">
-        <v>-81.421000000000006</v>
-      </c>
-      <c r="E357">
-        <v>25.085000000000001</v>
-      </c>
-      <c r="F357">
-        <v>23.437000000000001</v>
-      </c>
-      <c r="G357">
-        <v>23.620999999999999</v>
-      </c>
-      <c r="H357">
-        <v>-11.157</v>
-      </c>
-      <c r="I357">
-        <v>9.5950000000000006</v>
-      </c>
-    </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A358">
-        <v>0.106</v>
-      </c>
-      <c r="B358">
-        <v>-0.51600000000000001</v>
-      </c>
-      <c r="C358">
-        <v>0.77700000000000002</v>
-      </c>
-      <c r="D358">
-        <v>-46.387</v>
-      </c>
-      <c r="E358">
-        <v>28.564</v>
-      </c>
-      <c r="F358">
-        <v>-1.343</v>
-      </c>
-      <c r="G358">
-        <v>24.181999999999999</v>
-      </c>
-      <c r="H358">
-        <v>-11.914</v>
-      </c>
-      <c r="I358">
-        <v>9.2289999999999992</v>
-      </c>
-    </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A359">
-        <v>0.11799999999999999</v>
-      </c>
-      <c r="B359">
-        <v>-0.66200000000000003</v>
-      </c>
-      <c r="C359">
-        <v>0.86199999999999999</v>
-      </c>
-      <c r="D359">
-        <v>27.161000000000001</v>
-      </c>
-      <c r="E359">
-        <v>18.920999999999999</v>
-      </c>
-      <c r="F359">
-        <v>-10.315</v>
-      </c>
-      <c r="G359">
-        <v>24.181999999999999</v>
-      </c>
-      <c r="H359">
-        <v>-11.096</v>
-      </c>
-      <c r="I359">
-        <v>8.6790000000000003</v>
-      </c>
-    </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A360">
-        <v>0.123</v>
-      </c>
-      <c r="B360">
-        <v>-0.67400000000000004</v>
-      </c>
-      <c r="C360">
-        <v>0.79600000000000004</v>
-      </c>
-      <c r="D360">
-        <v>75.927999999999997</v>
-      </c>
-      <c r="E360">
-        <v>23.620999999999999</v>
-      </c>
-      <c r="F360">
-        <v>-40.832999999999998</v>
-      </c>
-      <c r="G360">
-        <v>24.268000000000001</v>
-      </c>
-      <c r="H360">
-        <v>-10.852</v>
-      </c>
-      <c r="I360">
-        <v>9.0579999999999998</v>
-      </c>
-    </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A361">
-        <v>0.06</v>
-      </c>
-      <c r="B361">
-        <v>-0.71299999999999997</v>
-      </c>
-      <c r="C361">
-        <v>0.73299999999999998</v>
-      </c>
-      <c r="D361">
-        <v>96.863</v>
-      </c>
-      <c r="E361">
-        <v>4.7</v>
-      </c>
-      <c r="F361">
-        <v>-49.194000000000003</v>
-      </c>
-      <c r="G361">
-        <v>25</v>
-      </c>
-      <c r="H361">
-        <v>-9.2899999999999991</v>
-      </c>
-      <c r="I361">
-        <v>8.0079999999999991</v>
-      </c>
-    </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A362">
-        <v>0.02</v>
-      </c>
-      <c r="B362">
-        <v>-0.67200000000000004</v>
-      </c>
-      <c r="C362">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="D362">
-        <v>116.821</v>
-      </c>
-      <c r="E362">
-        <v>-9.9489999999999998</v>
-      </c>
-      <c r="F362">
-        <v>-55.481000000000002</v>
-      </c>
-      <c r="G362">
-        <v>24.597000000000001</v>
-      </c>
-      <c r="H362">
-        <v>-7.8609999999999998</v>
-      </c>
-      <c r="I362">
-        <v>8.7040000000000006</v>
-      </c>
-    </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A363">
-        <v>2.1000000000000001E-2</v>
-      </c>
-      <c r="B363">
-        <v>-0.752</v>
-      </c>
-      <c r="C363">
-        <v>0.45600000000000002</v>
-      </c>
-      <c r="D363">
-        <v>19.347999999999999</v>
-      </c>
-      <c r="E363">
-        <v>-24.231000000000002</v>
-      </c>
-      <c r="F363">
-        <v>-42.357999999999997</v>
-      </c>
-      <c r="G363">
-        <v>24.303999999999998</v>
-      </c>
-      <c r="H363">
-        <v>-7.6539999999999999</v>
-      </c>
-      <c r="I363">
-        <v>8.5079999999999991</v>
-      </c>
-    </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A364">
-        <v>-6.9000000000000006E-2</v>
-      </c>
-      <c r="B364">
-        <v>-0.88700000000000001</v>
-      </c>
-      <c r="C364">
-        <v>0.501</v>
-      </c>
-      <c r="D364">
-        <v>-12.756</v>
-      </c>
-      <c r="E364">
-        <v>-29.602</v>
-      </c>
-      <c r="F364">
-        <v>-32.226999999999997</v>
-      </c>
-      <c r="G364">
-        <v>23.766999999999999</v>
-      </c>
-      <c r="H364">
-        <v>-7.9960000000000004</v>
-      </c>
-      <c r="I364">
-        <v>9.4730000000000008</v>
-      </c>
-    </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A365">
-        <v>-8.5000000000000006E-2</v>
-      </c>
-      <c r="B365">
-        <v>-0.83699999999999997</v>
-      </c>
-      <c r="C365">
-        <v>0.53300000000000003</v>
-      </c>
-      <c r="D365">
-        <v>-35.033999999999999</v>
-      </c>
-      <c r="E365">
-        <v>0.79300000000000004</v>
-      </c>
-      <c r="F365">
-        <v>-23.498999999999999</v>
-      </c>
-      <c r="G365">
-        <v>23.815999999999999</v>
-      </c>
-      <c r="H365">
-        <v>-8.7889999999999997</v>
-      </c>
-      <c r="I365">
-        <v>7.9219999999999997</v>
-      </c>
-    </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A366">
-        <v>-0.152</v>
-      </c>
-      <c r="B366">
-        <v>-0.81100000000000005</v>
-      </c>
-      <c r="C366">
-        <v>0.60899999999999999</v>
-      </c>
-      <c r="D366">
-        <v>-42.357999999999997</v>
-      </c>
-      <c r="E366">
-        <v>-11.292</v>
-      </c>
-      <c r="F366">
-        <v>-9.827</v>
-      </c>
-      <c r="G366">
-        <v>24.364999999999998</v>
-      </c>
-      <c r="H366">
-        <v>-8.8989999999999991</v>
-      </c>
-      <c r="I366">
-        <v>9.6069999999999993</v>
-      </c>
-    </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A367">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="B367">
-        <v>-0.52700000000000002</v>
-      </c>
-      <c r="C367">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="D367">
-        <v>4.4560000000000004</v>
-      </c>
-      <c r="E367">
-        <v>-12.695</v>
-      </c>
-      <c r="F367">
-        <v>26.672000000000001</v>
-      </c>
-      <c r="G367">
-        <v>23.937999999999999</v>
-      </c>
-      <c r="H367">
-        <v>-10.217000000000001</v>
-      </c>
-      <c r="I367">
-        <v>8.4960000000000004</v>
-      </c>
-    </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A368">
-        <v>-2.4E-2</v>
-      </c>
-      <c r="B368">
-        <v>-0.79400000000000004</v>
-      </c>
-      <c r="C368">
-        <v>0.499</v>
-      </c>
-      <c r="D368">
-        <v>75.561999999999998</v>
-      </c>
-      <c r="E368">
-        <v>-15.259</v>
-      </c>
-      <c r="F368">
-        <v>113.40300000000001</v>
-      </c>
-      <c r="G368">
-        <v>23.388999999999999</v>
-      </c>
-      <c r="H368">
-        <v>-6.665</v>
-      </c>
-      <c r="I368">
-        <v>8.74</v>
-      </c>
-    </row>
-    <row r="369" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A369">
-        <v>0.152</v>
-      </c>
-      <c r="B369">
-        <v>-0.98599999999999999</v>
-      </c>
-      <c r="C369">
-        <v>0.49099999999999999</v>
-      </c>
-      <c r="D369">
-        <v>35.767000000000003</v>
-      </c>
-      <c r="E369">
-        <v>9.0329999999999995</v>
-      </c>
-      <c r="F369">
-        <v>75.561999999999998</v>
-      </c>
-      <c r="G369">
-        <v>23.742999999999999</v>
-      </c>
-      <c r="H369">
-        <v>-4.8460000000000001</v>
-      </c>
-      <c r="I369">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="370" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A370">
-        <v>0.112</v>
-      </c>
-      <c r="B370">
-        <v>-0.872</v>
-      </c>
-      <c r="C370">
-        <v>0.52900000000000003</v>
-      </c>
-      <c r="D370">
-        <v>1.282</v>
-      </c>
-      <c r="E370">
-        <v>10.62</v>
-      </c>
-      <c r="F370">
-        <v>43.579000000000001</v>
-      </c>
-      <c r="G370">
-        <v>23.888999999999999</v>
-      </c>
-      <c r="H370">
-        <v>-4.3090000000000002</v>
-      </c>
-      <c r="I370">
-        <v>8.3620000000000001</v>
-      </c>
-    </row>
-    <row r="371" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A371">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="B371">
-        <v>-0.90800000000000003</v>
-      </c>
-      <c r="C371">
-        <v>0.52800000000000002</v>
-      </c>
-      <c r="D371">
-        <v>-19.103999999999999</v>
-      </c>
-      <c r="E371">
-        <v>8.6059999999999999</v>
-      </c>
-      <c r="F371">
-        <v>25.635000000000002</v>
-      </c>
-      <c r="G371">
-        <v>24.292000000000002</v>
-      </c>
-      <c r="H371">
-        <v>-3.7229999999999999</v>
-      </c>
-      <c r="I371">
-        <v>8.2520000000000007</v>
-      </c>
-    </row>
-    <row r="372" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A372">
-        <v>0.13400000000000001</v>
-      </c>
-      <c r="B372">
-        <v>-0.90100000000000002</v>
-      </c>
-      <c r="C372">
-        <v>0.55300000000000005</v>
-      </c>
-      <c r="D372">
-        <v>-77.637</v>
-      </c>
-      <c r="E372">
-        <v>1.9530000000000001</v>
-      </c>
-      <c r="F372">
-        <v>7.9960000000000004</v>
-      </c>
-      <c r="G372">
-        <v>24.047999999999998</v>
-      </c>
-      <c r="H372">
-        <v>-4.5039999999999996</v>
-      </c>
-      <c r="I372">
-        <v>8.5329999999999995</v>
-      </c>
-    </row>
-    <row r="373" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A373">
-        <v>0.158</v>
-      </c>
-      <c r="B373">
-        <v>-0.84699999999999998</v>
-      </c>
-      <c r="C373">
-        <v>0.54300000000000004</v>
-      </c>
-      <c r="D373">
-        <v>-121.765</v>
-      </c>
-      <c r="E373">
-        <v>25.085000000000001</v>
-      </c>
-      <c r="F373">
-        <v>-6.0999999999999999E-2</v>
-      </c>
-      <c r="G373">
-        <v>24.768000000000001</v>
-      </c>
-      <c r="H373">
-        <v>-6.3719999999999999</v>
-      </c>
-      <c r="I373">
-        <v>8.5329999999999995</v>
-      </c>
-    </row>
-    <row r="374" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A374">
-        <v>0.308</v>
-      </c>
-      <c r="B374">
-        <v>-0.622</v>
-      </c>
-      <c r="C374">
-        <v>0.71799999999999997</v>
-      </c>
-      <c r="D374">
-        <v>-145.99600000000001</v>
-      </c>
-      <c r="E374">
-        <v>14.709</v>
-      </c>
-      <c r="F374">
-        <v>-3.2349999999999999</v>
-      </c>
-      <c r="G374">
-        <v>24.853999999999999</v>
-      </c>
-      <c r="H374">
-        <v>-8.5820000000000007</v>
-      </c>
-      <c r="I374">
-        <v>8.4960000000000004</v>
-      </c>
-    </row>
-    <row r="375" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A375">
-        <v>0.28599999999999998</v>
-      </c>
-      <c r="B375">
-        <v>-0.61399999999999999</v>
-      </c>
-      <c r="C375">
-        <v>0.85699999999999998</v>
-      </c>
-      <c r="D375">
-        <v>-93.811000000000007</v>
-      </c>
-      <c r="E375">
-        <v>-5.0049999999999999</v>
-      </c>
-      <c r="F375">
-        <v>-85.204999999999998</v>
-      </c>
-      <c r="G375">
-        <v>24.39</v>
-      </c>
-      <c r="H375">
-        <v>-11.255000000000001</v>
-      </c>
-      <c r="I375">
-        <v>8.3620000000000001</v>
-      </c>
-    </row>
-    <row r="376" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A376">
-        <v>0.215</v>
-      </c>
-      <c r="B376">
-        <v>-0.311</v>
-      </c>
-      <c r="C376">
-        <v>0.91300000000000003</v>
-      </c>
-      <c r="D376">
-        <v>-21.056999999999999</v>
-      </c>
-      <c r="E376">
-        <v>0</v>
-      </c>
-      <c r="F376">
-        <v>-99.426000000000002</v>
-      </c>
-      <c r="G376">
-        <v>25.317</v>
-      </c>
-      <c r="H376">
-        <v>-12.927</v>
-      </c>
-      <c r="I376">
-        <v>10.083</v>
-      </c>
-    </row>
-    <row r="377" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A377">
-        <v>8.1000000000000003E-2</v>
-      </c>
-      <c r="B377">
-        <v>-0.68500000000000005</v>
-      </c>
-      <c r="C377">
-        <v>0.872</v>
-      </c>
-      <c r="D377">
-        <v>48.584000000000003</v>
-      </c>
-      <c r="E377">
-        <v>-26.672000000000001</v>
-      </c>
-      <c r="F377">
-        <v>-72.876000000000005</v>
-      </c>
-      <c r="G377">
-        <v>26.001000000000001</v>
-      </c>
-      <c r="H377">
-        <v>-13.464</v>
-      </c>
-      <c r="I377">
-        <v>10.045999999999999</v>
-      </c>
-    </row>
-    <row r="378" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A378">
-        <v>5.3999999999999999E-2</v>
-      </c>
-      <c r="B378">
-        <v>-0.41299999999999998</v>
-      </c>
-      <c r="C378">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D378">
-        <v>14.526</v>
-      </c>
-      <c r="E378">
-        <v>-7.202</v>
-      </c>
-      <c r="F378">
-        <v>-69.091999999999999</v>
-      </c>
-      <c r="G378">
-        <v>25.536999999999999</v>
-      </c>
-      <c r="H378">
-        <v>-13.477</v>
-      </c>
-      <c r="I378">
-        <v>10.180999999999999</v>
-      </c>
-    </row>
-    <row r="379" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A379">
-        <v>-0.14000000000000001</v>
-      </c>
-      <c r="B379">
-        <v>-0.61699999999999999</v>
-      </c>
-      <c r="C379">
-        <v>0.84899999999999998</v>
-      </c>
-      <c r="D379">
-        <v>33.936</v>
-      </c>
-      <c r="E379">
-        <v>-17.882999999999999</v>
-      </c>
-      <c r="F379">
-        <v>-21.300999999999998</v>
-      </c>
-      <c r="G379">
-        <v>26.085999999999999</v>
-      </c>
-      <c r="H379">
-        <v>-13.489000000000001</v>
-      </c>
-      <c r="I379">
-        <v>8.8870000000000005</v>
-      </c>
-    </row>
-    <row r="380" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A380">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B380">
-        <v>-0.5</v>
-      </c>
-      <c r="C380">
-        <v>0.84099999999999997</v>
-      </c>
-      <c r="D380">
-        <v>57.677999999999997</v>
-      </c>
-      <c r="E380">
-        <v>-0.91600000000000004</v>
-      </c>
-      <c r="F380">
-        <v>22.582999999999998</v>
-      </c>
-      <c r="G380">
-        <v>26.44</v>
-      </c>
-      <c r="H380">
-        <v>-12.695</v>
-      </c>
-      <c r="I380">
-        <v>8.7520000000000007</v>
-      </c>
-    </row>
-    <row r="381" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A381">
-        <v>-8.6999999999999994E-2</v>
-      </c>
-      <c r="B381">
-        <v>-0.70299999999999996</v>
-      </c>
-      <c r="C381">
-        <v>0.66300000000000003</v>
-      </c>
-      <c r="D381">
-        <v>87.402000000000001</v>
-      </c>
-      <c r="E381">
-        <v>-5.798</v>
-      </c>
-      <c r="F381">
-        <v>69.153000000000006</v>
-      </c>
-      <c r="G381">
-        <v>25.745000000000001</v>
-      </c>
-      <c r="H381">
-        <v>-11.169</v>
-      </c>
-      <c r="I381">
-        <v>8.3010000000000002</v>
-      </c>
-    </row>
-    <row r="382" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A382">
-        <v>5.2999999999999999E-2</v>
-      </c>
-      <c r="B382">
-        <v>-0.877</v>
-      </c>
-      <c r="C382">
-        <v>0.65</v>
-      </c>
-      <c r="D382">
-        <v>42.908000000000001</v>
-      </c>
-      <c r="E382">
-        <v>-3.7229999999999999</v>
-      </c>
-      <c r="F382">
-        <v>43.213000000000001</v>
-      </c>
-      <c r="G382">
-        <v>25.745000000000001</v>
-      </c>
-      <c r="H382">
-        <v>-9.4969999999999999</v>
-      </c>
-      <c r="I382">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="383" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A383">
-        <v>5.5E-2</v>
-      </c>
-      <c r="B383">
-        <v>-0.751</v>
-      </c>
-      <c r="C383">
-        <v>0.60599999999999998</v>
-      </c>
-      <c r="D383">
-        <v>-1.282</v>
-      </c>
-      <c r="E383">
-        <v>0.48799999999999999</v>
-      </c>
-      <c r="F383">
-        <v>-0.42699999999999999</v>
-      </c>
-      <c r="G383">
-        <v>25.268999999999998</v>
-      </c>
-      <c r="H383">
-        <v>-9.1059999999999999</v>
-      </c>
-      <c r="I383">
-        <v>8.1180000000000003</v>
-      </c>
-    </row>
-    <row r="384" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A384">
-        <v>5.8000000000000003E-2</v>
-      </c>
-      <c r="B384">
-        <v>-0.71799999999999997</v>
-      </c>
-      <c r="C384">
-        <v>0.68100000000000005</v>
-      </c>
-      <c r="D384">
-        <v>16.173999999999999</v>
-      </c>
-      <c r="E384">
-        <v>-4.944</v>
-      </c>
-      <c r="F384">
-        <v>16.968</v>
-      </c>
-      <c r="G384">
-        <v>25.562000000000001</v>
-      </c>
-      <c r="H384">
-        <v>-8.5939999999999994</v>
-      </c>
-      <c r="I384">
-        <v>8.2759999999999998</v>
-      </c>
-    </row>
-    <row r="385" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A385">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="B385">
-        <v>-0.72899999999999998</v>
-      </c>
-      <c r="C385">
-        <v>0.62</v>
-      </c>
-      <c r="D385">
-        <v>2.319</v>
-      </c>
-      <c r="E385">
-        <v>-7.3849999999999998</v>
-      </c>
-      <c r="F385">
-        <v>16.846</v>
-      </c>
-      <c r="G385">
-        <v>25.22</v>
-      </c>
-      <c r="H385">
-        <v>-9.3989999999999991</v>
-      </c>
-      <c r="I385">
-        <v>8.9719999999999995</v>
-      </c>
-    </row>
-    <row r="386" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A386">
-        <v>9.7000000000000003E-2</v>
-      </c>
-      <c r="B386">
-        <v>-0.60399999999999998</v>
-      </c>
-      <c r="C386">
-        <v>0.66600000000000004</v>
-      </c>
-      <c r="D386">
-        <v>7.0190000000000001</v>
-      </c>
-      <c r="E386">
-        <v>-3.601</v>
-      </c>
-      <c r="F386">
-        <v>31.25</v>
-      </c>
-      <c r="G386">
-        <v>25.073</v>
-      </c>
-      <c r="H386">
-        <v>-8.6790000000000003</v>
-      </c>
-      <c r="I386">
-        <v>8.8620000000000001</v>
-      </c>
-    </row>
-    <row r="387" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A387">
-        <v>0.13700000000000001</v>
-      </c>
-      <c r="B387">
-        <v>-0.81299999999999994</v>
-      </c>
-      <c r="C387">
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="D387">
-        <v>-3.113</v>
-      </c>
-      <c r="E387">
-        <v>-13.489000000000001</v>
-      </c>
-      <c r="F387">
-        <v>72.510000000000005</v>
-      </c>
-      <c r="G387">
-        <v>25.61</v>
-      </c>
-      <c r="H387">
-        <v>-8.1050000000000004</v>
-      </c>
-      <c r="I387">
-        <v>7.7030000000000003</v>
-      </c>
-    </row>
-    <row r="388" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A388">
-        <v>0.13900000000000001</v>
-      </c>
-      <c r="B388">
-        <v>-0.82399999999999995</v>
-      </c>
-      <c r="C388">
-        <v>0.623</v>
-      </c>
-      <c r="D388">
-        <v>-53.771999999999998</v>
-      </c>
-      <c r="E388">
-        <v>-5.1269999999999998</v>
-      </c>
-      <c r="F388">
-        <v>66.894999999999996</v>
-      </c>
-      <c r="G388">
-        <v>24.303999999999998</v>
-      </c>
-      <c r="H388">
-        <v>-8.2889999999999997</v>
-      </c>
-      <c r="I388">
-        <v>8.6300000000000008</v>
-      </c>
-    </row>
-    <row r="389" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A389">
-        <v>0.22</v>
-      </c>
-      <c r="B389">
-        <v>-0.80500000000000005</v>
-      </c>
-      <c r="C389">
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="D389">
-        <v>-45.104999999999997</v>
-      </c>
-      <c r="E389">
-        <v>-0.54900000000000004</v>
-      </c>
-      <c r="F389">
-        <v>3.9060000000000001</v>
-      </c>
-      <c r="G389">
-        <v>24.219000000000001</v>
-      </c>
-      <c r="H389">
-        <v>-8.24</v>
-      </c>
-      <c r="I389">
-        <v>8.2029999999999994</v>
-      </c>
-    </row>
-    <row r="390" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A390">
-        <v>0.25600000000000001</v>
-      </c>
-      <c r="B390">
-        <v>-0.65600000000000003</v>
-      </c>
-      <c r="C390">
-        <v>0.71599999999999997</v>
-      </c>
-      <c r="D390">
-        <v>-82.641999999999996</v>
-      </c>
-      <c r="E390">
-        <v>7.4459999999999997</v>
-      </c>
-      <c r="F390">
-        <v>-39.000999999999998</v>
-      </c>
-      <c r="G390">
-        <v>25.207999999999998</v>
-      </c>
-      <c r="H390">
-        <v>-9.7780000000000005</v>
-      </c>
-      <c r="I390">
-        <v>9.2769999999999992</v>
-      </c>
-    </row>
-    <row r="391" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A391">
-        <v>0.21199999999999999</v>
-      </c>
-      <c r="B391">
-        <v>-0.57799999999999996</v>
-      </c>
-      <c r="C391">
-        <v>0.82299999999999995</v>
-      </c>
-      <c r="D391">
-        <v>-47.363</v>
-      </c>
-      <c r="E391">
-        <v>4.6390000000000002</v>
-      </c>
-      <c r="F391">
-        <v>-66.832999999999998</v>
-      </c>
-      <c r="G391">
-        <v>25.33</v>
-      </c>
-      <c r="H391">
-        <v>-11.646000000000001</v>
-      </c>
-      <c r="I391">
-        <v>8.984</v>
-      </c>
-    </row>
-    <row r="392" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A392">
-        <v>0.217</v>
-      </c>
-      <c r="B392">
-        <v>-0.57499999999999996</v>
-      </c>
-      <c r="C392">
-        <v>0.879</v>
-      </c>
-      <c r="D392">
-        <v>1.831</v>
-      </c>
-      <c r="E392">
-        <v>-5.6760000000000002</v>
-      </c>
-      <c r="F392">
-        <v>-85.326999999999998</v>
-      </c>
-      <c r="G392">
-        <v>25.646999999999998</v>
-      </c>
-      <c r="H392">
-        <v>-12.573</v>
-      </c>
-      <c r="I392">
-        <v>9.2289999999999992</v>
-      </c>
-    </row>
-    <row r="393" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A393">
-        <v>6.7000000000000004E-2</v>
-      </c>
-      <c r="B393">
-        <v>-0.56599999999999995</v>
-      </c>
-      <c r="C393">
-        <v>0.75</v>
-      </c>
-      <c r="D393">
-        <v>26.917000000000002</v>
-      </c>
-      <c r="E393">
-        <v>-37.597999999999999</v>
-      </c>
-      <c r="F393">
-        <v>-79.406999999999996</v>
-      </c>
-      <c r="G393">
-        <v>25.670999999999999</v>
-      </c>
-      <c r="H393">
-        <v>-13.025</v>
-      </c>
-      <c r="I393">
-        <v>8.6669999999999998</v>
-      </c>
-    </row>
-    <row r="394" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A394">
-        <v>4.2999999999999997E-2</v>
-      </c>
-      <c r="B394">
-        <v>-0.55200000000000005</v>
-      </c>
-      <c r="C394">
-        <v>0.753</v>
-      </c>
-      <c r="D394">
-        <v>15.625</v>
-      </c>
-      <c r="E394">
-        <v>-22.460999999999999</v>
-      </c>
-      <c r="F394">
-        <v>-32.409999999999997</v>
-      </c>
-      <c r="G394">
-        <v>25.158999999999999</v>
-      </c>
-      <c r="H394">
-        <v>-13.257</v>
-      </c>
-      <c r="I394">
-        <v>8.7279999999999998</v>
-      </c>
-    </row>
-    <row r="395" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A395">
-        <v>-0.106</v>
-      </c>
-      <c r="B395">
-        <v>-0.68799999999999994</v>
-      </c>
-      <c r="C395">
-        <v>0.74099999999999999</v>
-      </c>
-      <c r="D395">
-        <v>-3.54</v>
-      </c>
-      <c r="E395">
-        <v>-19.103999999999999</v>
-      </c>
-      <c r="F395">
-        <v>-7.3239999999999998</v>
-      </c>
-      <c r="G395">
-        <v>24.805</v>
-      </c>
-      <c r="H395">
-        <v>-12.622</v>
-      </c>
-      <c r="I395">
-        <v>8.9480000000000004</v>
-      </c>
-    </row>
-    <row r="396" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A396">
-        <v>-1.4999999999999999E-2</v>
-      </c>
-      <c r="B396">
-        <v>-0.54900000000000004</v>
-      </c>
-      <c r="C396">
-        <v>0.75600000000000001</v>
-      </c>
-      <c r="D396">
-        <v>27.222000000000001</v>
-      </c>
-      <c r="E396">
-        <v>-2.9910000000000001</v>
-      </c>
-      <c r="F396">
-        <v>-2.6859999999999999</v>
-      </c>
-      <c r="G396">
-        <v>25.073</v>
-      </c>
-      <c r="H396">
-        <v>-12.548999999999999</v>
-      </c>
-      <c r="I396">
-        <v>9.4120000000000008</v>
-      </c>
-    </row>
-    <row r="397" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A397">
-        <v>-7.4999999999999997E-2</v>
-      </c>
-      <c r="B397">
-        <v>-0.58799999999999997</v>
-      </c>
-      <c r="C397">
-        <v>0.72199999999999998</v>
-      </c>
-      <c r="D397">
-        <v>47.606999999999999</v>
-      </c>
-      <c r="E397">
-        <v>10.01</v>
-      </c>
-      <c r="F397">
-        <v>30.64</v>
-      </c>
-      <c r="G397">
-        <v>25.036999999999999</v>
-      </c>
-      <c r="H397">
-        <v>-12.244</v>
-      </c>
-      <c r="I397">
-        <v>8.0570000000000004</v>
-      </c>
-    </row>
-    <row r="398" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A398">
-        <v>2E-3</v>
-      </c>
-      <c r="B398">
-        <v>-0.66700000000000004</v>
-      </c>
-      <c r="C398">
-        <v>0.69899999999999995</v>
-      </c>
-      <c r="D398">
-        <v>92.712000000000003</v>
-      </c>
-      <c r="E398">
-        <v>21.79</v>
-      </c>
-      <c r="F398">
-        <v>60.912999999999997</v>
-      </c>
-      <c r="G398">
-        <v>25.012</v>
-      </c>
-      <c r="H398">
-        <v>-10.180999999999999</v>
-      </c>
-      <c r="I398">
-        <v>8.6180000000000003</v>
-      </c>
-    </row>
-    <row r="399" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A399">
-        <v>9.6000000000000002E-2</v>
-      </c>
-      <c r="B399">
-        <v>-0.79100000000000004</v>
-      </c>
-      <c r="C399">
-        <v>0.67300000000000004</v>
-      </c>
-      <c r="D399">
-        <v>85.570999999999998</v>
-      </c>
-      <c r="E399">
-        <v>25.390999999999998</v>
-      </c>
-      <c r="F399">
-        <v>63.353999999999999</v>
-      </c>
-      <c r="G399">
-        <v>25.684000000000001</v>
-      </c>
-      <c r="H399">
-        <v>-7.7510000000000003</v>
-      </c>
-      <c r="I399">
-        <v>7.3360000000000003</v>
-      </c>
-    </row>
-    <row r="400" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A400">
-        <v>0.186</v>
-      </c>
-      <c r="B400">
-        <v>-0.873</v>
-      </c>
-      <c r="C400">
-        <v>0.57599999999999996</v>
-      </c>
-      <c r="D400">
-        <v>51.758000000000003</v>
-      </c>
-      <c r="E400">
-        <v>8.9719999999999995</v>
-      </c>
-      <c r="F400">
-        <v>46.143000000000001</v>
-      </c>
-      <c r="G400">
-        <v>26.062000000000001</v>
-      </c>
-      <c r="H400">
-        <v>-5.42</v>
-      </c>
-      <c r="I400">
-        <v>6.7990000000000004</v>
-      </c>
-    </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A401">
-        <v>0.19900000000000001</v>
-      </c>
-      <c r="B401">
-        <v>-0.85899999999999999</v>
-      </c>
-      <c r="C401">
-        <v>0.51</v>
-      </c>
-      <c r="D401">
-        <v>30.762</v>
-      </c>
-      <c r="E401">
-        <v>7.8120000000000003</v>
-      </c>
-      <c r="F401">
-        <v>6.9580000000000002</v>
-      </c>
-      <c r="G401">
-        <v>25.83</v>
-      </c>
-      <c r="H401">
-        <v>-5.1150000000000002</v>
-      </c>
-      <c r="I401">
-        <v>7.5439999999999996</v>
-      </c>
-    </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A402">
-        <v>0.20100000000000001</v>
-      </c>
-      <c r="B402">
-        <v>-0.88700000000000001</v>
-      </c>
-      <c r="C402">
-        <v>0.49199999999999999</v>
-      </c>
-      <c r="D402">
-        <v>16.052</v>
-      </c>
-      <c r="E402">
-        <v>2.0139999999999998</v>
-      </c>
-      <c r="F402">
-        <v>-8.484</v>
-      </c>
-      <c r="G402">
-        <v>26.428000000000001</v>
-      </c>
-      <c r="H402">
-        <v>-4.4560000000000004</v>
-      </c>
-      <c r="I402">
-        <v>6.86</v>
-      </c>
-    </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A403">
-        <v>0.22600000000000001</v>
-      </c>
-      <c r="B403">
-        <v>-0.93200000000000005</v>
-      </c>
-      <c r="C403">
-        <v>0.44</v>
-      </c>
-      <c r="D403">
-        <v>-22.704999999999998</v>
-      </c>
-      <c r="E403">
-        <v>-7.4459999999999997</v>
-      </c>
-      <c r="F403">
-        <v>-42.357999999999997</v>
-      </c>
-      <c r="G403">
-        <v>26.306000000000001</v>
-      </c>
-      <c r="H403">
-        <v>-4.8460000000000001</v>
-      </c>
-      <c r="I403">
-        <v>7.7759999999999998</v>
-      </c>
-    </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A404">
-        <v>0.14899999999999999</v>
-      </c>
-      <c r="B404">
-        <v>-0.79800000000000004</v>
-      </c>
-      <c r="C404">
-        <v>0.53700000000000003</v>
-      </c>
-      <c r="D404">
-        <v>-54.076999999999998</v>
-      </c>
-      <c r="E404">
-        <v>-4.883</v>
-      </c>
-      <c r="F404">
-        <v>-56.823999999999998</v>
-      </c>
-      <c r="G404">
-        <v>26.611000000000001</v>
-      </c>
-      <c r="H404">
-        <v>-6.5430000000000001</v>
-      </c>
-      <c r="I404">
-        <v>7.0069999999999997</v>
-      </c>
-    </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A405">
-        <v>7.8E-2</v>
-      </c>
-      <c r="B405">
-        <v>-0.76600000000000001</v>
-      </c>
-      <c r="C405">
-        <v>0.56699999999999995</v>
-      </c>
-      <c r="D405">
-        <v>-60.424999999999997</v>
-      </c>
-      <c r="E405">
-        <v>-11.962999999999999</v>
-      </c>
-      <c r="F405">
-        <v>-40.71</v>
-      </c>
-      <c r="G405">
-        <v>25.684000000000001</v>
-      </c>
-      <c r="H405">
-        <v>-8.1300000000000008</v>
-      </c>
-      <c r="I405">
-        <v>7.9829999999999997</v>
-      </c>
-    </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A406">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="B406">
-        <v>-0.80300000000000005</v>
-      </c>
-      <c r="C406">
-        <v>0.65200000000000002</v>
-      </c>
-      <c r="D406">
-        <v>-44.738999999999997</v>
-      </c>
-      <c r="E406">
-        <v>8.5449999999999999</v>
-      </c>
-      <c r="F406">
-        <v>-32.103999999999999</v>
-      </c>
-      <c r="G406">
-        <v>25.867000000000001</v>
-      </c>
-      <c r="H406">
-        <v>-9.7409999999999997</v>
-      </c>
-      <c r="I406">
-        <v>7.8739999999999997</v>
-      </c>
-    </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A407">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="B407">
-        <v>-0.66200000000000003</v>
-      </c>
-      <c r="C407">
-        <v>0.68700000000000006</v>
-      </c>
-      <c r="D407">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="E407">
-        <v>0.54900000000000004</v>
-      </c>
-      <c r="F407">
-        <v>-9.7050000000000001</v>
-      </c>
-      <c r="G407">
-        <v>25.61</v>
-      </c>
-      <c r="H407">
-        <v>-10.022</v>
-      </c>
-      <c r="I407">
-        <v>7.5810000000000004</v>
-      </c>
-    </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A408">
-        <v>6.8000000000000005E-2</v>
-      </c>
-      <c r="B408">
-        <v>-0.78</v>
-      </c>
-      <c r="C408">
-        <v>0.629</v>
-      </c>
-      <c r="D408">
-        <v>26.123000000000001</v>
-      </c>
-      <c r="E408">
-        <v>6.4089999999999998</v>
-      </c>
-      <c r="F408">
-        <v>28.015000000000001</v>
-      </c>
-      <c r="G408">
-        <v>26.074000000000002</v>
-      </c>
-      <c r="H408">
-        <v>-9.0210000000000008</v>
-      </c>
-      <c r="I408">
-        <v>8.4109999999999996</v>
-      </c>
-    </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A409">
-        <v>8.2000000000000003E-2</v>
-      </c>
-      <c r="B409">
-        <v>-0.77500000000000002</v>
-      </c>
-      <c r="C409">
-        <v>0.628</v>
-      </c>
-      <c r="D409">
-        <v>53.100999999999999</v>
-      </c>
-      <c r="E409">
-        <v>4.5170000000000003</v>
-      </c>
-      <c r="F409">
-        <v>38.817999999999998</v>
-      </c>
-      <c r="G409">
-        <v>25.134</v>
-      </c>
-      <c r="H409">
-        <v>-7.8490000000000002</v>
-      </c>
-      <c r="I409">
-        <v>7.617</v>
-      </c>
-    </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A410">
-        <v>0.121</v>
-      </c>
-      <c r="B410">
-        <v>-0.873</v>
-      </c>
-      <c r="C410">
-        <v>0.62</v>
-      </c>
-      <c r="D410">
-        <v>-2.625</v>
-      </c>
-      <c r="E410">
-        <v>-7.0190000000000001</v>
-      </c>
-      <c r="F410">
-        <v>40.222000000000001</v>
-      </c>
-      <c r="G410">
-        <v>25.928000000000001</v>
-      </c>
-      <c r="H410">
-        <v>-6.9580000000000002</v>
-      </c>
-      <c r="I410">
-        <v>7.5679999999999996</v>
-      </c>
-    </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A411">
-        <v>0.156</v>
-      </c>
-      <c r="B411">
-        <v>-0.79200000000000004</v>
-      </c>
-      <c r="C411">
-        <v>0.58099999999999996</v>
-      </c>
-      <c r="D411">
-        <v>-45.165999999999997</v>
-      </c>
-      <c r="E411">
-        <v>-8.7889999999999997</v>
-      </c>
-      <c r="F411">
-        <v>24.414000000000001</v>
-      </c>
-      <c r="G411">
-        <v>25.989000000000001</v>
-      </c>
-      <c r="H411">
-        <v>-7.3730000000000002</v>
-      </c>
-      <c r="I411">
-        <v>7.9829999999999997</v>
-      </c>
-    </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A412">
-        <v>0.14199999999999999</v>
-      </c>
-      <c r="B412">
-        <v>-0.75800000000000001</v>
-      </c>
-      <c r="C412">
-        <v>0.65600000000000003</v>
-      </c>
-      <c r="D412">
-        <v>-84.656000000000006</v>
-      </c>
-      <c r="E412">
-        <v>3.3570000000000002</v>
-      </c>
-      <c r="F412">
-        <v>20.873999999999999</v>
-      </c>
-      <c r="G412">
-        <v>25.5</v>
-      </c>
-      <c r="H412">
-        <v>-8.5570000000000004</v>
-      </c>
-      <c r="I412">
-        <v>7.3849999999999998</v>
-      </c>
-    </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A413">
-        <v>0.16</v>
-      </c>
-      <c r="B413">
-        <v>-0.747</v>
-      </c>
-      <c r="C413">
-        <v>0.72899999999999998</v>
-      </c>
-      <c r="D413">
-        <v>-72.692999999999998</v>
-      </c>
-      <c r="E413">
-        <v>18.187999999999999</v>
-      </c>
-      <c r="F413">
-        <v>-31.738</v>
-      </c>
-      <c r="G413">
-        <v>25.244</v>
-      </c>
-      <c r="H413">
-        <v>-9.7780000000000005</v>
-      </c>
-      <c r="I413">
-        <v>8.4960000000000004</v>
-      </c>
-    </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A414">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="B414">
-        <v>-0.65800000000000003</v>
-      </c>
-      <c r="C414">
-        <v>0.76900000000000002</v>
-      </c>
-      <c r="D414">
-        <v>-62.439</v>
-      </c>
-      <c r="E414">
-        <v>16.356999999999999</v>
-      </c>
-      <c r="F414">
-        <v>-50.780999999999999</v>
-      </c>
-      <c r="G414">
-        <v>25.890999999999998</v>
-      </c>
-      <c r="H414">
-        <v>-11.853</v>
-      </c>
-      <c r="I414">
-        <v>7.5069999999999997</v>
-      </c>
-    </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A415">
-        <v>0.23699999999999999</v>
-      </c>
-      <c r="B415">
-        <v>-0.54200000000000004</v>
-      </c>
-      <c r="C415">
-        <v>0.78600000000000003</v>
-      </c>
-      <c r="D415">
-        <v>-24.902000000000001</v>
-      </c>
-      <c r="E415">
-        <v>1.77</v>
-      </c>
-      <c r="F415">
-        <v>-62.988</v>
-      </c>
-      <c r="G415">
-        <v>26.489000000000001</v>
-      </c>
-      <c r="H415">
-        <v>-12.462999999999999</v>
-      </c>
-      <c r="I415">
-        <v>9.0579999999999998</v>
-      </c>
-    </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A416">
-        <v>0.155</v>
-      </c>
-      <c r="B416">
-        <v>-0.61199999999999999</v>
-      </c>
-      <c r="C416">
-        <v>0.78300000000000003</v>
-      </c>
-      <c r="D416">
-        <v>-3.6619999999999999</v>
-      </c>
-      <c r="E416">
-        <v>-26.184000000000001</v>
-      </c>
-      <c r="F416">
-        <v>-72.632000000000005</v>
-      </c>
-      <c r="G416">
-        <v>26.635999999999999</v>
-      </c>
-      <c r="H416">
-        <v>-13.196</v>
-      </c>
-      <c r="I416">
-        <v>7.4829999999999997</v>
-      </c>
-    </row>
-    <row r="417" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A417">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="B417">
-        <v>-0.501</v>
-      </c>
-      <c r="C417">
-        <v>0.74299999999999999</v>
-      </c>
-      <c r="D417">
-        <v>-18.311</v>
-      </c>
-      <c r="E417">
-        <v>-17.395</v>
-      </c>
-      <c r="F417">
-        <v>-35.338999999999999</v>
-      </c>
-      <c r="G417">
-        <v>26.501000000000001</v>
-      </c>
-      <c r="H417">
-        <v>-13.708</v>
-      </c>
-      <c r="I417">
-        <v>9.1920000000000002</v>
-      </c>
-    </row>
-    <row r="418" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A418">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="B418">
-        <v>-0.59199999999999997</v>
-      </c>
-      <c r="C418">
-        <v>0.81399999999999995</v>
-      </c>
-      <c r="D418">
-        <v>13.305999999999999</v>
-      </c>
-      <c r="E418">
-        <v>-8.7889999999999997</v>
-      </c>
-      <c r="F418">
-        <v>-16.113</v>
-      </c>
-      <c r="G418">
-        <v>27.087</v>
-      </c>
-      <c r="H418">
-        <v>-13.805999999999999</v>
-      </c>
-      <c r="I418">
-        <v>8.6669999999999998</v>
-      </c>
-    </row>
-    <row r="419" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A419">
-        <v>-2.9000000000000001E-2</v>
-      </c>
-      <c r="B419">
-        <v>-0.621</v>
-      </c>
-      <c r="C419">
-        <v>0.74199999999999999</v>
-      </c>
-      <c r="D419">
-        <v>17.882999999999999</v>
-      </c>
-      <c r="E419">
-        <v>-10.315</v>
-      </c>
-      <c r="F419">
-        <v>-11.840999999999999</v>
-      </c>
-      <c r="G419">
-        <v>26.282</v>
-      </c>
-      <c r="H419">
-        <v>-13.708</v>
-      </c>
-      <c r="I419">
-        <v>9.0579999999999998</v>
-      </c>
-    </row>
-    <row r="420" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A420">
-        <v>0</v>
-      </c>
-      <c r="B420">
-        <v>-0.56699999999999995</v>
-      </c>
-      <c r="C420">
-        <v>0.78700000000000003</v>
-      </c>
-      <c r="D420">
-        <v>35.155999999999999</v>
-      </c>
-      <c r="E420">
-        <v>-7.202</v>
-      </c>
-      <c r="F420">
-        <v>6.7140000000000004</v>
-      </c>
-      <c r="G420">
-        <v>26.038</v>
-      </c>
-      <c r="H420">
-        <v>-13.159000000000001</v>
-      </c>
-      <c r="I420">
-        <v>8.4469999999999992</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
